--- a/public_html/archivos/2010_1024_EAU.xlsx
+++ b/public_html/archivos/2010_1024_EAU.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="286">
   <si>
     <t>INSTITUCION</t>
   </si>
@@ -285,9 +285,6 @@
     <t>GASTO_MAT_PRIMA</t>
   </si>
   <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
     <t>UNIVERSIDAD ESTATAL DE MILAGRO</t>
   </si>
   <si>
@@ -369,12 +366,6 @@
     <t/>
   </si>
   <si>
-    <t>05488</t>
-  </si>
-  <si>
-    <t>NO VIGENTE HABILITADO PARA REGISTRO DE TÍTULOS</t>
-  </si>
-  <si>
     <t>INGENIERÍA COMERCIAL</t>
   </si>
   <si>
@@ -393,12 +384,6 @@
     <t>FUNCIONANDO NORMALMENTE</t>
   </si>
   <si>
-    <t>06008</t>
-  </si>
-  <si>
-    <t>VIGENTE</t>
-  </si>
-  <si>
     <t>INGENIERÍA EN CONTADURIA PÚBLICA Y AUDITORIA    CPA</t>
   </si>
   <si>
@@ -417,9 +402,6 @@
     <t>RESOLUCIÓN DE CU N 268</t>
   </si>
   <si>
-    <t>01805</t>
-  </si>
-  <si>
     <t>GUAYAQUIL</t>
   </si>
   <si>
@@ -441,9 +423,6 @@
     <t>RESGISTRO DE CONESUP</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>INGENIERÍA EN MARKETING</t>
   </si>
   <si>
@@ -459,12 +438,6 @@
     <t>RESOLUCIÓN DE CU N 265</t>
   </si>
   <si>
-    <t>11512</t>
-  </si>
-  <si>
-    <t>NO VIGENTE</t>
-  </si>
-  <si>
     <t>UNIDAD ACADEMICA DE CIENCIAS DE LA INGENIERÍA</t>
   </si>
   <si>
@@ -492,9 +465,6 @@
     <t>RESOLUCIÓN DE CU N 249</t>
   </si>
   <si>
-    <t>01204</t>
-  </si>
-  <si>
     <t>TARQUI</t>
   </si>
   <si>
@@ -522,15 +492,9 @@
     <t>POR AUTONOMIA SE CREO LA CARRERA</t>
   </si>
   <si>
-    <t>11232</t>
-  </si>
-  <si>
     <t>INGENIERO INDUSTRIAL MENCIÓN MANTENIMIENTO INDUSTRIAL</t>
   </si>
   <si>
-    <t>05493</t>
-  </si>
-  <si>
     <t>UNIDAD ACADEMICA DE EDUCACIÓN SEMIPRECENCIAL Y A DISTANCIA</t>
   </si>
   <si>
@@ -567,12 +531,6 @@
     <t>LICENCIADO EN CIENCAS DE LA EDUCACIÓN MENCIÓN COMERCIO Y ADMINISTRACION</t>
   </si>
   <si>
-    <t>01207</t>
-  </si>
-  <si>
-    <t>NO CONSTA</t>
-  </si>
-  <si>
     <t>LICENCIATURA EN CIENCAS DE LA EDUCACIÓN MENCIÓN EDUCACIÓN BASICA</t>
   </si>
   <si>
@@ -585,9 +543,6 @@
     <t>EDUCACIÓN BÁSICA</t>
   </si>
   <si>
-    <t>06009</t>
-  </si>
-  <si>
     <t>UNIDAD ACADEMICA DE CIENCIAS DE LA EDUCACIÓN Y DE LA COMUNICACION</t>
   </si>
   <si>
@@ -603,9 +558,6 @@
     <t>EDUCACIÓN INICIAL</t>
   </si>
   <si>
-    <t>01208</t>
-  </si>
-  <si>
     <t>LICENCIATURA EN CIENCAS DE LA EDUCACIÓN MENCIÓN EDUCACIÓN PARVULARIA</t>
   </si>
   <si>
@@ -699,9 +651,6 @@
     <t>EDUCACIÓN MENCIÓN SECRETARIADO</t>
   </si>
   <si>
-    <t>01211</t>
-  </si>
-  <si>
     <t>LICENCIATURA EN CIENCIAS DE LA EDUCACIÓN MENCIÓN CULTURA FÍSICA</t>
   </si>
   <si>
@@ -741,9 +690,6 @@
     <t>RESOLUCIÓN DE CONSEJO 250</t>
   </si>
   <si>
-    <t>06011</t>
-  </si>
-  <si>
     <t>LICENCIATURA EN DISEÑO GRAFICO Y PUBLICIDAD</t>
   </si>
   <si>
@@ -765,9 +711,6 @@
     <t>RESOLUCIÓN DE CONSEJO 50</t>
   </si>
   <si>
-    <t>06837</t>
-  </si>
-  <si>
     <t>UNIDAD ACADEMICA CIENCIAS DE LA SALUD</t>
   </si>
   <si>
@@ -792,9 +735,6 @@
     <t>RESOLUCIÓN DE CONSEJO 120</t>
   </si>
   <si>
-    <t>06016</t>
-  </si>
-  <si>
     <t>AVENIDA DE LA MARINA Y PUERTO MARITIMO</t>
   </si>
   <si>
@@ -810,9 +750,6 @@
     <t>LICENCIADO EN GESTION EMPRESARIAL</t>
   </si>
   <si>
-    <t>05490</t>
-  </si>
-  <si>
     <t>LICENCIATURA EN NUTRICIÓN HUMANA</t>
   </si>
   <si>
@@ -825,9 +762,6 @@
     <t>NUTRICIÓN</t>
   </si>
   <si>
-    <t>11513</t>
-  </si>
-  <si>
     <t>LICENCIATURA EN TERAPIA RESPIRATORIA</t>
   </si>
   <si>
@@ -859,9 +793,6 @@
   </si>
   <si>
     <t>RESOLUCIÓN DE CONSEJO 255</t>
-  </si>
-  <si>
-    <t>05487</t>
   </si>
   <si>
     <t>PSICOLOGIA</t>
@@ -1357,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM44"/>
+  <dimension ref="A1:CK44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,13 +1378,11 @@
     <col min="87" max="87" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="7" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="41.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:89" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1463,9 +1392,9 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:91" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1475,7 +1404,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1743,86 +1672,80 @@
       <c r="CK5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CL5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM5" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1024</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="K6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="Q6" s="5">
         <v>65</v>
       </c>
       <c r="R6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S6" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="T6" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="U6" s="5">
         <v>1</v>
       </c>
       <c r="V6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="X6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="W6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="Y6" s="5">
         <v>0</v>
       </c>
@@ -1833,46 +1756,46 @@
         <v>0</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF6" s="4">
         <v>2004</v>
       </c>
       <c r="AG6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AH6" s="4" t="s">
+      <c r="AI6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AI6" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
+      <c r="AK6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AK6" s="4" t="s">
+      <c r="AL6" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL6" s="4" t="s">
+      <c r="AM6" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM6" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN6" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP6" s="4">
         <v>4</v>
@@ -1887,22 +1810,22 @@
         <v>245</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AU6" s="4">
         <v>0</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ6" s="4">
         <v>6</v>
@@ -1977,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="BX6" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY6" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ6" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CB6" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC6" s="4">
         <v>4</v>
@@ -2007,10 +1930,10 @@
         <v>14</v>
       </c>
       <c r="CH6" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CI6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ6" s="7">
         <v>0</v>
@@ -2018,85 +1941,79 @@
       <c r="CK6" s="7">
         <v>0</v>
       </c>
-      <c r="CL6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="CM6" s="4" t="s">
-        <v>118</v>
-      </c>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1024</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="J7" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q7" s="5">
         <v>65</v>
       </c>
       <c r="R7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S7" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="T7" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="U7" s="5">
         <v>4</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Y7" s="5">
         <v>0</v>
@@ -2108,46 +2025,46 @@
         <v>0</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF7" s="4">
         <v>2001</v>
       </c>
       <c r="AG7" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AH7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AI7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ7" s="4" t="s">
+      <c r="AK7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AK7" s="4" t="s">
+      <c r="AL7" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL7" s="4" t="s">
+      <c r="AM7" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM7" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP7" s="4">
         <v>4</v>
@@ -2162,22 +2079,22 @@
         <v>245</v>
       </c>
       <c r="AT7" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AU7" s="4">
         <v>0</v>
       </c>
       <c r="AV7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ7" s="4">
         <v>6</v>
@@ -2252,19 +2169,19 @@
         <v>300</v>
       </c>
       <c r="BX7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC7" s="4">
         <v>60</v>
@@ -2285,7 +2202,7 @@
         <v>87</v>
       </c>
       <c r="CI7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ7" s="7">
         <v>0</v>
@@ -2293,85 +2210,79 @@
       <c r="CK7" s="7">
         <v>0</v>
       </c>
-      <c r="CL7" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="CM7" s="4" t="s">
-        <v>126</v>
-      </c>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1024</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="J8" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N8" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="5">
         <v>65</v>
       </c>
       <c r="R8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S8" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="T8" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="U8" s="5">
         <v>4</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="Y8" s="5">
         <v>0</v>
@@ -2383,46 +2294,46 @@
         <v>0</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF8" s="4">
         <v>2001</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AH8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AI8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ8" s="4" t="s">
+      <c r="AK8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AK8" s="4" t="s">
+      <c r="AL8" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL8" s="4" t="s">
+      <c r="AM8" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM8" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP8" s="4">
         <v>4</v>
@@ -2437,22 +2348,22 @@
         <v>245</v>
       </c>
       <c r="AT8" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AU8" s="4">
         <v>0</v>
       </c>
       <c r="AV8" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY8" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ8" s="4">
         <v>6</v>
@@ -2527,19 +2438,19 @@
         <v>300</v>
       </c>
       <c r="BX8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC8" s="4">
         <v>120</v>
@@ -2560,7 +2471,7 @@
         <v>87</v>
       </c>
       <c r="CI8" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ8" s="7">
         <v>0</v>
@@ -2568,136 +2479,130 @@
       <c r="CK8" s="7">
         <v>0</v>
       </c>
-      <c r="CL8" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="CM8" s="4" t="s">
-        <v>126</v>
-      </c>
     </row>
-    <row r="9" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1024</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N9" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q9" s="5">
         <v>65</v>
       </c>
       <c r="R9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S9" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="T9" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="U9" s="5">
         <v>4</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="X9" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD9" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Y9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="AE9" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AF9" s="4">
         <v>2004</v>
       </c>
       <c r="AG9" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ9" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AK9" s="4" t="s">
+      <c r="AL9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL9" s="4" t="s">
+      <c r="AM9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM9" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP9" s="4">
         <v>4</v>
@@ -2712,22 +2617,22 @@
         <v>250</v>
       </c>
       <c r="AT9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AU9" s="4">
         <v>0</v>
       </c>
       <c r="AV9" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY9" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ9" s="4">
         <v>6</v>
@@ -2802,19 +2707,19 @@
         <v>0</v>
       </c>
       <c r="BX9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC9" s="4">
         <v>15</v>
@@ -2835,7 +2740,7 @@
         <v>60</v>
       </c>
       <c r="CI9" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ9" s="7">
         <v>0</v>
@@ -2843,85 +2748,79 @@
       <c r="CK9" s="7">
         <v>0</v>
       </c>
-      <c r="CL9" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM9" s="4" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1024</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="J10" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="5">
         <v>65</v>
       </c>
       <c r="R10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="T10" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="U10" s="5">
         <v>4</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="Y10" s="5">
         <v>0</v>
@@ -2933,46 +2832,46 @@
         <v>0</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF10" s="4">
         <v>2004</v>
       </c>
       <c r="AG10" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AH10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AI10" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ10" s="4" t="s">
+      <c r="AK10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AK10" s="4" t="s">
+      <c r="AL10" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL10" s="4" t="s">
+      <c r="AM10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM10" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN10" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO10" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP10" s="4">
         <v>4</v>
@@ -2987,22 +2886,22 @@
         <v>245</v>
       </c>
       <c r="AT10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AU10" s="4">
         <v>0</v>
       </c>
       <c r="AV10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW10" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX10" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ10" s="4">
         <v>6</v>
@@ -3077,19 +2976,19 @@
         <v>0</v>
       </c>
       <c r="BX10" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY10" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ10" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA10" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB10" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC10" s="4">
         <v>0</v>
@@ -3107,10 +3006,10 @@
         <v>16</v>
       </c>
       <c r="CH10" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CI10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ10" s="7">
         <v>0</v>
@@ -3118,136 +3017,130 @@
       <c r="CK10" s="7">
         <v>0</v>
       </c>
-      <c r="CL10" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="CM10" s="4" t="s">
-        <v>148</v>
-      </c>
     </row>
-    <row r="11" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1024</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I11" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="Q11" s="5">
         <v>65</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="U11" s="5">
         <v>8</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="Y11" s="5">
         <v>1</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="AA11" s="5">
         <v>0</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF11" s="4">
         <v>2001</v>
       </c>
       <c r="AG11" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="AH11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AI11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ11" s="4" t="s">
+      <c r="AK11" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AK11" s="4" t="s">
+      <c r="AL11" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL11" s="4" t="s">
+      <c r="AM11" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM11" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP11" s="4">
         <v>4</v>
@@ -3262,22 +3155,22 @@
         <v>245</v>
       </c>
       <c r="AT11" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AU11" s="4">
         <v>0</v>
       </c>
       <c r="AV11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AW11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ11" s="4">
         <v>6</v>
@@ -3352,19 +3245,19 @@
         <v>300</v>
       </c>
       <c r="BX11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC11" s="4">
         <v>30</v>
@@ -3385,7 +3278,7 @@
         <v>87</v>
       </c>
       <c r="CI11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ11" s="7">
         <v>145526</v>
@@ -3393,134 +3286,128 @@
       <c r="CK11" s="7">
         <v>12000</v>
       </c>
-      <c r="CL11" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="CM11" s="4" t="s">
-        <v>126</v>
-      </c>
     </row>
-    <row r="12" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1024</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="Q12" s="5">
         <v>65</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="U12" s="5">
         <v>4</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="Y12" s="5">
         <v>1</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="AA12" s="5">
         <v>0</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF12" s="4">
         <v>2008</v>
       </c>
       <c r="AG12" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AH12" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AI12" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL12" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL12" s="4" t="s">
+      <c r="AM12" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM12" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP12" s="4">
         <v>4</v>
@@ -3535,22 +3422,22 @@
         <v>245</v>
       </c>
       <c r="AT12" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AU12" s="4">
         <v>0</v>
       </c>
       <c r="AV12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AW12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AZ12" s="4">
         <v>6</v>
@@ -3625,19 +3512,19 @@
         <v>250</v>
       </c>
       <c r="BX12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC12" s="4">
         <v>0</v>
@@ -3658,7 +3545,7 @@
         <v>86</v>
       </c>
       <c r="CI12" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ12" s="7">
         <v>0</v>
@@ -3666,136 +3553,130 @@
       <c r="CK12" s="7">
         <v>0</v>
       </c>
-      <c r="CL12" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="CM12" s="4" t="s">
-        <v>118</v>
-      </c>
     </row>
-    <row r="13" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1024</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I13" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="K13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="Q13" s="5">
         <v>65</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="U13" s="5">
         <v>4</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="Y13" s="5">
         <v>1</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="AA13" s="5">
         <v>0</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF13" s="4">
         <v>2003</v>
       </c>
       <c r="AG13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH13" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ13" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH13" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ13" s="4" t="s">
+      <c r="AK13" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AK13" s="4" t="s">
+      <c r="AL13" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL13" s="4" t="s">
+      <c r="AM13" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM13" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN13" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO13" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP13" s="4">
         <v>4</v>
@@ -3810,22 +3691,22 @@
         <v>245</v>
       </c>
       <c r="AT13" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AU13" s="4">
         <v>0</v>
       </c>
       <c r="AV13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW13" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX13" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ13" s="4">
         <v>6</v>
@@ -3900,19 +3781,19 @@
         <v>0</v>
       </c>
       <c r="BX13" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY13" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ13" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA13" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB13" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC13" s="4">
         <v>50</v>
@@ -3930,10 +3811,10 @@
         <v>50</v>
       </c>
       <c r="CH13" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CI13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ13" s="7">
         <v>51697</v>
@@ -3941,85 +3822,79 @@
       <c r="CK13" s="7">
         <v>8000</v>
       </c>
-      <c r="CL13" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="CM13" s="4" t="s">
-        <v>126</v>
-      </c>
     </row>
-    <row r="14" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1024</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I14" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="K14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="5">
         <v>65</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="U14" s="5">
         <v>4</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="Y14" s="5">
         <v>0</v>
@@ -4031,46 +3906,46 @@
         <v>1</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF14" s="4">
         <v>2001</v>
       </c>
       <c r="AG14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ14" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH14" s="4" t="s">
+      <c r="AK14" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="AI14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ14" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK14" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="AL14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM14" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM14" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN14" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO14" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP14" s="4">
         <v>4</v>
@@ -4085,22 +3960,22 @@
         <v>245</v>
       </c>
       <c r="AT14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AU14" s="4">
         <v>0</v>
       </c>
       <c r="AV14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW14" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX14" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ14" s="4">
         <v>6</v>
@@ -4175,19 +4050,19 @@
         <v>0</v>
       </c>
       <c r="BX14" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY14" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ14" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA14" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB14" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC14" s="4">
         <v>0</v>
@@ -4205,10 +4080,10 @@
         <v>0</v>
       </c>
       <c r="CH14" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CI14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ14" s="7">
         <v>0</v>
@@ -4216,85 +4091,79 @@
       <c r="CK14" s="7">
         <v>0</v>
       </c>
-      <c r="CL14" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM14" s="4" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="15" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1024</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I15" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="K15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N15" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="Q15" s="5">
         <v>65</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="U15" s="5">
         <v>4</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="Y15" s="5">
         <v>0</v>
@@ -4306,46 +4175,46 @@
         <v>1</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF15" s="4">
         <v>2001</v>
       </c>
       <c r="AG15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH15" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ15" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH15" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI15" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ15" s="4" t="s">
+      <c r="AK15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AK15" s="4" t="s">
+      <c r="AL15" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL15" s="4" t="s">
+      <c r="AM15" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM15" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN15" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO15" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP15" s="4">
         <v>4</v>
@@ -4360,22 +4229,22 @@
         <v>245</v>
       </c>
       <c r="AT15" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AU15" s="4">
         <v>0</v>
       </c>
       <c r="AV15" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW15" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX15" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY15" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ15" s="4">
         <v>6</v>
@@ -4450,19 +4319,19 @@
         <v>0</v>
       </c>
       <c r="BX15" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY15" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ15" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA15" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB15" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC15" s="4">
         <v>0</v>
@@ -4480,10 +4349,10 @@
         <v>0</v>
       </c>
       <c r="CH15" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CI15" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ15" s="7">
         <v>0</v>
@@ -4491,85 +4360,79 @@
       <c r="CK15" s="7">
         <v>0</v>
       </c>
-      <c r="CL15" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="CM15" s="4" t="s">
-        <v>184</v>
-      </c>
     </row>
-    <row r="16" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1024</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I16" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="K16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N16" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="Q16" s="5">
         <v>65</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="U16" s="5">
         <v>4</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="Y16" s="5">
         <v>0</v>
@@ -4581,46 +4444,46 @@
         <v>1</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD16" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF16" s="4">
         <v>2001</v>
       </c>
       <c r="AG16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH16" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH16" s="4" t="s">
+      <c r="AK16" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="AI16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ16" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK16" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="AL16" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM16" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM16" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN16" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO16" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP16" s="4">
         <v>4</v>
@@ -4635,22 +4498,22 @@
         <v>245</v>
       </c>
       <c r="AT16" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AU16" s="4">
         <v>0</v>
       </c>
       <c r="AV16" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW16" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX16" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY16" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ16" s="4">
         <v>6</v>
@@ -4725,19 +4588,19 @@
         <v>200</v>
       </c>
       <c r="BX16" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY16" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ16" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA16" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB16" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC16" s="4">
         <v>0</v>
@@ -4755,10 +4618,10 @@
         <v>90</v>
       </c>
       <c r="CH16" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CI16" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ16" s="7">
         <v>0</v>
@@ -4766,85 +4629,79 @@
       <c r="CK16" s="7">
         <v>0</v>
       </c>
-      <c r="CL16" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="CM16" s="4" t="s">
-        <v>148</v>
-      </c>
     </row>
-    <row r="17" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1024</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I17" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="K17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="Q17" s="5">
         <v>65</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="U17" s="5">
         <v>4</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="Y17" s="5">
         <v>0</v>
@@ -4856,46 +4713,46 @@
         <v>1</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD17" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF17" s="4">
         <v>2001</v>
       </c>
       <c r="AG17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH17" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ17" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH17" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI17" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ17" s="4" t="s">
+      <c r="AK17" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AK17" s="4" t="s">
+      <c r="AL17" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL17" s="4" t="s">
+      <c r="AM17" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM17" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP17" s="4">
         <v>4</v>
@@ -4910,22 +4767,22 @@
         <v>245</v>
       </c>
       <c r="AT17" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AU17" s="4">
         <v>0</v>
       </c>
       <c r="AV17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ17" s="4">
         <v>6</v>
@@ -5000,19 +4857,19 @@
         <v>150</v>
       </c>
       <c r="BX17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC17" s="4">
         <v>0</v>
@@ -5030,10 +4887,10 @@
         <v>90</v>
       </c>
       <c r="CH17" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CI17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ17" s="7">
         <v>0</v>
@@ -5041,85 +4898,79 @@
       <c r="CK17" s="7">
         <v>0</v>
       </c>
-      <c r="CL17" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM17" s="4" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="18" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1024</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I18" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="K18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N18" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="Q18" s="5">
         <v>65</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="U18" s="5">
         <v>4</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="Y18" s="5">
         <v>0</v>
@@ -5131,46 +4982,46 @@
         <v>1</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD18" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF18" s="4">
         <v>2001</v>
       </c>
       <c r="AG18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ18" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH18" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI18" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ18" s="4" t="s">
+      <c r="AK18" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AK18" s="4" t="s">
+      <c r="AL18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL18" s="4" t="s">
+      <c r="AM18" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM18" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN18" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO18" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP18" s="4">
         <v>4</v>
@@ -5185,22 +5036,22 @@
         <v>245</v>
       </c>
       <c r="AT18" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AU18" s="4">
         <v>0</v>
       </c>
       <c r="AV18" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW18" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX18" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY18" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ18" s="4">
         <v>6</v>
@@ -5275,19 +5126,19 @@
         <v>150</v>
       </c>
       <c r="BX18" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY18" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ18" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA18" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB18" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC18" s="4">
         <v>0</v>
@@ -5308,7 +5159,7 @@
         <v>87</v>
       </c>
       <c r="CI18" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ18" s="7">
         <v>0</v>
@@ -5316,85 +5167,79 @@
       <c r="CK18" s="7">
         <v>0</v>
       </c>
-      <c r="CL18" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="CM18" s="4" t="s">
-        <v>126</v>
-      </c>
     </row>
-    <row r="19" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1024</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I19" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="K19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N19" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="Q19" s="5">
         <v>65</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S19" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="U19" s="5">
         <v>4</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="Y19" s="5">
         <v>0</v>
@@ -5406,46 +5251,46 @@
         <v>1</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC19" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD19" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF19" s="4">
         <v>2001</v>
       </c>
       <c r="AG19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ19" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH19" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI19" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ19" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="AK19" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="AL19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM19" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN19" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO19" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP19" s="4">
         <v>4</v>
@@ -5460,22 +5305,22 @@
         <v>245</v>
       </c>
       <c r="AT19" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AU19" s="4">
         <v>0</v>
       </c>
       <c r="AV19" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW19" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX19" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY19" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ19" s="4">
         <v>6</v>
@@ -5550,19 +5395,19 @@
         <v>0</v>
       </c>
       <c r="BX19" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY19" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ19" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA19" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB19" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC19" s="4">
         <v>0</v>
@@ -5583,7 +5428,7 @@
         <v>87</v>
       </c>
       <c r="CI19" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ19" s="7">
         <v>0</v>
@@ -5591,85 +5436,79 @@
       <c r="CK19" s="7">
         <v>0</v>
       </c>
-      <c r="CL19" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM19" s="4" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="20" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1024</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I20" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="K20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="5">
         <v>65</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="U20" s="5">
         <v>4</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="Y20" s="5">
         <v>0</v>
@@ -5681,46 +5520,46 @@
         <v>1</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD20" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF20" s="4">
         <v>2001</v>
       </c>
       <c r="AG20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ20" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH20" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI20" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ20" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="AK20" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="AL20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM20" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM20" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP20" s="4">
         <v>4</v>
@@ -5735,22 +5574,22 @@
         <v>245</v>
       </c>
       <c r="AT20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AU20" s="4">
         <v>0</v>
       </c>
       <c r="AV20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ20" s="4">
         <v>6</v>
@@ -5825,19 +5664,19 @@
         <v>0</v>
       </c>
       <c r="BX20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB20" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC20" s="4">
         <v>0</v>
@@ -5855,10 +5694,10 @@
         <v>0</v>
       </c>
       <c r="CH20" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CI20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ20" s="7">
         <v>0</v>
@@ -5866,85 +5705,79 @@
       <c r="CK20" s="7">
         <v>0</v>
       </c>
-      <c r="CL20" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM20" s="4" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="21" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1024</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I21" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="K21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="Q21" s="5">
         <v>65</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="U21" s="5">
         <v>4</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="Y21" s="5">
         <v>0</v>
@@ -5956,46 +5789,46 @@
         <v>1</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD21" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF21" s="4">
         <v>2001</v>
       </c>
       <c r="AG21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ21" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH21" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI21" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ21" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="AK21" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="AL21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM21" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM21" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN21" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO21" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP21" s="4">
         <v>4</v>
@@ -6010,22 +5843,22 @@
         <v>245</v>
       </c>
       <c r="AT21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AU21" s="4">
         <v>0</v>
       </c>
       <c r="AV21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW21" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX21" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ21" s="4">
         <v>6</v>
@@ -6100,19 +5933,19 @@
         <v>0</v>
       </c>
       <c r="BX21" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY21" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ21" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA21" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB21" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC21" s="4">
         <v>0</v>
@@ -6130,10 +5963,10 @@
         <v>0</v>
       </c>
       <c r="CH21" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CI21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ21" s="7">
         <v>0</v>
@@ -6141,85 +5974,79 @@
       <c r="CK21" s="7">
         <v>0</v>
       </c>
-      <c r="CL21" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM21" s="4" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="22" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1024</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I22" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="K22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L22" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N22" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="Q22" s="5">
         <v>65</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="U22" s="5">
         <v>4</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="Y22" s="5">
         <v>0</v>
@@ -6231,46 +6058,46 @@
         <v>1</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD22" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF22" s="4">
         <v>2001</v>
       </c>
       <c r="AG22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ22" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH22" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI22" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ22" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="AK22" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="AL22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM22" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM22" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP22" s="4">
         <v>4</v>
@@ -6285,22 +6112,22 @@
         <v>245</v>
       </c>
       <c r="AT22" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AU22" s="4">
         <v>0</v>
       </c>
       <c r="AV22" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY22" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ22" s="4">
         <v>6</v>
@@ -6375,19 +6202,19 @@
         <v>100</v>
       </c>
       <c r="BX22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC22" s="4">
         <v>20</v>
@@ -6408,7 +6235,7 @@
         <v>87</v>
       </c>
       <c r="CI22" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ22" s="7">
         <v>2065</v>
@@ -6416,85 +6243,79 @@
       <c r="CK22" s="7">
         <v>3500</v>
       </c>
-      <c r="CL22" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM22" s="4" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="23" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>1024</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I23" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="K23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="Q23" s="5">
         <v>65</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="U23" s="5">
         <v>4</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="Y23" s="5">
         <v>0</v>
@@ -6506,46 +6327,46 @@
         <v>1</v>
       </c>
       <c r="AB23" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD23" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF23" s="4">
         <v>2001</v>
       </c>
       <c r="AG23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ23" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH23" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI23" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ23" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="AK23" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="AL23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM23" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM23" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN23" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO23" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP23" s="4">
         <v>4</v>
@@ -6560,22 +6381,22 @@
         <v>245</v>
       </c>
       <c r="AT23" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AU23" s="4">
         <v>0</v>
       </c>
       <c r="AV23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW23" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX23" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ23" s="4">
         <v>6</v>
@@ -6650,19 +6471,19 @@
         <v>0</v>
       </c>
       <c r="BX23" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY23" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ23" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA23" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB23" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC23" s="4">
         <v>0</v>
@@ -6683,93 +6504,87 @@
         <v>0</v>
       </c>
       <c r="CI23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ23" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CK23" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="CL23" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM23" s="4" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1024</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I24" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="K24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="Q24" s="5">
         <v>65</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S24" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="U24" s="5">
         <v>4</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="W24" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="Y24" s="5">
         <v>0</v>
@@ -6781,46 +6596,46 @@
         <v>1</v>
       </c>
       <c r="AB24" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD24" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF24" s="4">
         <v>2001</v>
       </c>
       <c r="AG24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ24" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH24" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI24" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ24" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="AK24" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="AL24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM24" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM24" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN24" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO24" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP24" s="4">
         <v>4</v>
@@ -6835,22 +6650,22 @@
         <v>245</v>
       </c>
       <c r="AT24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AU24" s="4">
         <v>0</v>
       </c>
       <c r="AV24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW24" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX24" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ24" s="4">
         <v>6</v>
@@ -6925,19 +6740,19 @@
         <v>0</v>
       </c>
       <c r="BX24" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY24" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ24" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA24" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB24" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC24" s="4">
         <v>0</v>
@@ -6955,10 +6770,10 @@
         <v>0</v>
       </c>
       <c r="CH24" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CI24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ24" s="7">
         <v>0</v>
@@ -6966,85 +6781,79 @@
       <c r="CK24" s="7">
         <v>0</v>
       </c>
-      <c r="CL24" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM24" s="4" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="25" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1024</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I25" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="K25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="Q25" s="5">
         <v>65</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="U25" s="5">
         <v>4</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="Y25" s="5">
         <v>0</v>
@@ -7056,46 +6865,46 @@
         <v>1</v>
       </c>
       <c r="AB25" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD25" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF25" s="4">
         <v>2001</v>
       </c>
       <c r="AG25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ25" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH25" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI25" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ25" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="AK25" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="AL25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM25" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM25" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN25" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO25" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP25" s="4">
         <v>4</v>
@@ -7110,22 +6919,22 @@
         <v>245</v>
       </c>
       <c r="AT25" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AU25" s="4">
         <v>0</v>
       </c>
       <c r="AV25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW25" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX25" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ25" s="4">
         <v>6</v>
@@ -7200,19 +7009,19 @@
         <v>0</v>
       </c>
       <c r="BX25" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY25" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ25" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA25" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB25" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC25" s="4">
         <v>0</v>
@@ -7230,10 +7039,10 @@
         <v>0</v>
       </c>
       <c r="CH25" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CI25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ25" s="7">
         <v>0</v>
@@ -7241,85 +7050,79 @@
       <c r="CK25" s="7">
         <v>0</v>
       </c>
-      <c r="CL25" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM25" s="4" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="26" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1024</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I26" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="K26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M26" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L26" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="Q26" s="5">
         <v>65</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="U26" s="5">
         <v>4</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="W26" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="Y26" s="5">
         <v>0</v>
@@ -7331,46 +7134,46 @@
         <v>1</v>
       </c>
       <c r="AB26" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD26" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE26" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF26" s="4">
         <v>2001</v>
       </c>
       <c r="AG26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ26" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH26" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI26" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ26" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="AK26" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="AL26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM26" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM26" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN26" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO26" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP26" s="4">
         <v>4</v>
@@ -7385,22 +7188,22 @@
         <v>245</v>
       </c>
       <c r="AT26" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AU26" s="4">
         <v>0</v>
       </c>
       <c r="AV26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW26" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX26" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ26" s="4">
         <v>6</v>
@@ -7475,19 +7278,19 @@
         <v>0</v>
       </c>
       <c r="BX26" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY26" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ26" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA26" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB26" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC26" s="4">
         <v>0</v>
@@ -7505,10 +7308,10 @@
         <v>0</v>
       </c>
       <c r="CH26" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CI26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ26" s="7">
         <v>0</v>
@@ -7516,85 +7319,79 @@
       <c r="CK26" s="7">
         <v>0</v>
       </c>
-      <c r="CL26" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM26" s="4" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="27" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1024</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I27" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="K27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M27" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L27" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N27" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="Q27" s="5">
         <v>65</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S27" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="U27" s="5">
         <v>4</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="W27" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="Y27" s="5">
         <v>0</v>
@@ -7606,46 +7403,46 @@
         <v>1</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC27" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD27" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE27" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF27" s="4">
         <v>2008</v>
       </c>
       <c r="AG27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ27" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH27" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI27" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ27" s="4" t="s">
+      <c r="AK27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AK27" s="4" t="s">
+      <c r="AL27" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL27" s="4" t="s">
+      <c r="AM27" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM27" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP27" s="4">
         <v>4</v>
@@ -7660,22 +7457,22 @@
         <v>245</v>
       </c>
       <c r="AT27" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AU27" s="4">
         <v>0</v>
       </c>
       <c r="AV27" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY27" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ27" s="4">
         <v>6</v>
@@ -7750,19 +7547,19 @@
         <v>0</v>
       </c>
       <c r="BX27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC27" s="4">
         <v>0</v>
@@ -7783,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="CI27" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ27" s="7">
         <v>0</v>
@@ -7791,85 +7588,79 @@
       <c r="CK27" s="7">
         <v>0</v>
       </c>
-      <c r="CL27" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="CM27" s="4" t="s">
-        <v>148</v>
-      </c>
     </row>
-    <row r="28" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>1024</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I28" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="K28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M28" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L28" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N28" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="Q28" s="5">
         <v>65</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S28" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="U28" s="5">
         <v>4</v>
       </c>
       <c r="V28" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="W28" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="Y28" s="5">
         <v>0</v>
@@ -7881,46 +7672,46 @@
         <v>1</v>
       </c>
       <c r="AB28" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC28" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD28" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE28" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF28" s="4">
         <v>2002</v>
       </c>
       <c r="AG28" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AH28" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AI28" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK28" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AK28" s="4" t="s">
+      <c r="AL28" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL28" s="4" t="s">
+      <c r="AM28" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM28" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN28" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO28" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP28" s="4">
         <v>4</v>
@@ -7935,22 +7726,22 @@
         <v>245</v>
       </c>
       <c r="AT28" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AU28" s="4">
         <v>0</v>
       </c>
       <c r="AV28" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW28" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX28" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY28" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ28" s="4">
         <v>6</v>
@@ -8025,19 +7816,19 @@
         <v>100</v>
       </c>
       <c r="BX28" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY28" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ28" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA28" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB28" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC28" s="4">
         <v>7</v>
@@ -8058,7 +7849,7 @@
         <v>87</v>
       </c>
       <c r="CI28" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ28" s="7">
         <v>2065</v>
@@ -8066,85 +7857,79 @@
       <c r="CK28" s="7">
         <v>3500</v>
       </c>
-      <c r="CL28" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM28" s="4" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="29" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>1024</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I29" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="K29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M29" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L29" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N29" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="Q29" s="5">
         <v>65</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S29" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="U29" s="5">
         <v>4</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="Y29" s="5">
         <v>0</v>
@@ -8156,46 +7941,46 @@
         <v>1</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC29" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD29" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF29" s="4">
         <v>2009</v>
       </c>
       <c r="AG29" s="4" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="AH29" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AI29" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ29" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK29" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AK29" s="4" t="s">
+      <c r="AL29" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL29" s="4" t="s">
+      <c r="AM29" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM29" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN29" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO29" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP29" s="4">
         <v>4</v>
@@ -8210,22 +7995,22 @@
         <v>245</v>
       </c>
       <c r="AT29" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AU29" s="4">
         <v>0</v>
       </c>
       <c r="AV29" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW29" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX29" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY29" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ29" s="4">
         <v>6</v>
@@ -8300,19 +8085,19 @@
         <v>150</v>
       </c>
       <c r="BX29" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY29" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ29" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA29" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB29" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC29" s="4">
         <v>0</v>
@@ -8330,10 +8115,10 @@
         <v>0</v>
       </c>
       <c r="CH29" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CI29" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ29" s="7">
         <v>0</v>
@@ -8341,85 +8126,79 @@
       <c r="CK29" s="7">
         <v>0</v>
       </c>
-      <c r="CL29" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM29" s="4" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="30" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1024</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I30" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="K30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L30" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N30" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="Q30" s="5">
         <v>65</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="U30" s="5">
         <v>4</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="W30" s="4" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="Y30" s="5">
         <v>0</v>
@@ -8431,46 +8210,46 @@
         <v>1</v>
       </c>
       <c r="AB30" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC30" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD30" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF30" s="4">
         <v>2008</v>
       </c>
       <c r="AG30" s="4" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="AH30" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK30" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="AI30" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ30" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK30" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="AL30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM30" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM30" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN30" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO30" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP30" s="4">
         <v>4</v>
@@ -8485,22 +8264,22 @@
         <v>245</v>
       </c>
       <c r="AT30" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AU30" s="4">
         <v>0</v>
       </c>
       <c r="AV30" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW30" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX30" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY30" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ30" s="4">
         <v>6</v>
@@ -8575,19 +8354,19 @@
         <v>100</v>
       </c>
       <c r="BX30" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY30" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ30" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA30" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB30" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC30" s="4">
         <v>0</v>
@@ -8605,10 +8384,10 @@
         <v>0</v>
       </c>
       <c r="CH30" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CI30" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ30" s="7">
         <v>0</v>
@@ -8616,85 +8395,79 @@
       <c r="CK30" s="7">
         <v>0</v>
       </c>
-      <c r="CL30" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM30" s="4" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="31" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1024</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I31" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="K31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M31" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L31" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N31" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="5">
         <v>65</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S31" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="U31" s="5">
         <v>4</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="W31" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="Y31" s="5">
         <v>0</v>
@@ -8706,46 +8479,46 @@
         <v>1</v>
       </c>
       <c r="AB31" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC31" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD31" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF31" s="4">
         <v>2001</v>
       </c>
       <c r="AG31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ31" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH31" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI31" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ31" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="AK31" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="AL31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM31" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM31" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN31" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO31" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP31" s="4">
         <v>4</v>
@@ -8760,22 +8533,22 @@
         <v>245</v>
       </c>
       <c r="AT31" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AU31" s="4">
         <v>0</v>
       </c>
       <c r="AV31" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW31" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX31" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY31" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ31" s="4">
         <v>6</v>
@@ -8850,19 +8623,19 @@
         <v>0</v>
       </c>
       <c r="BX31" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY31" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ31" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA31" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB31" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC31" s="4">
         <v>0</v>
@@ -8880,10 +8653,10 @@
         <v>0</v>
       </c>
       <c r="CH31" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CI31" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ31" s="7">
         <v>0</v>
@@ -8891,85 +8664,79 @@
       <c r="CK31" s="7">
         <v>0</v>
       </c>
-      <c r="CL31" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM31" s="4" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="32" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>1024</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I32" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="K32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M32" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L32" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N32" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="Q32" s="5">
         <v>65</v>
       </c>
       <c r="R32" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S32" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S32" s="6" t="s">
+      <c r="T32" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="T32" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="U32" s="5">
         <v>2</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="W32" s="4" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="Y32" s="5">
         <v>0</v>
@@ -8981,46 +8748,46 @@
         <v>0</v>
       </c>
       <c r="AB32" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC32" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD32" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF32" s="4">
         <v>2002</v>
       </c>
       <c r="AG32" s="4" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="AH32" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AI32" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ32" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK32" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AK32" s="4" t="s">
+      <c r="AL32" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL32" s="4" t="s">
+      <c r="AM32" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM32" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN32" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO32" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP32" s="4">
         <v>4</v>
@@ -9035,22 +8802,22 @@
         <v>245</v>
       </c>
       <c r="AT32" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AU32" s="4">
         <v>0</v>
       </c>
       <c r="AV32" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW32" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX32" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY32" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ32" s="4">
         <v>6</v>
@@ -9125,19 +8892,19 @@
         <v>200</v>
       </c>
       <c r="BX32" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY32" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ32" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA32" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB32" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC32" s="4">
         <v>8</v>
@@ -9158,7 +8925,7 @@
         <v>87</v>
       </c>
       <c r="CI32" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ32" s="7">
         <v>2895</v>
@@ -9166,85 +8933,79 @@
       <c r="CK32" s="7">
         <v>3500</v>
       </c>
-      <c r="CL32" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="CM32" s="4" t="s">
-        <v>126</v>
-      </c>
     </row>
-    <row r="33" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>1024</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I33" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="K33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M33" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L33" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N33" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="Q33" s="5">
         <v>65</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="U33" s="5">
         <v>1</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="W33" s="4" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="Y33" s="5">
         <v>0</v>
@@ -9256,46 +9017,46 @@
         <v>1</v>
       </c>
       <c r="AB33" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC33" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD33" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF33" s="4">
         <v>2001</v>
       </c>
       <c r="AG33" s="4" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="AH33" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AI33" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ33" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK33" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AK33" s="4" t="s">
+      <c r="AL33" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL33" s="4" t="s">
+      <c r="AM33" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM33" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN33" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO33" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP33" s="4">
         <v>4</v>
@@ -9310,22 +9071,22 @@
         <v>245</v>
       </c>
       <c r="AT33" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AU33" s="4">
         <v>0</v>
       </c>
       <c r="AV33" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW33" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX33" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY33" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ33" s="4">
         <v>6</v>
@@ -9400,19 +9161,19 @@
         <v>100</v>
       </c>
       <c r="BX33" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY33" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ33" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA33" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB33" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC33" s="4">
         <v>14</v>
@@ -9433,7 +9194,7 @@
         <v>87</v>
       </c>
       <c r="CI33" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ33" s="7">
         <v>2065</v>
@@ -9441,85 +9202,79 @@
       <c r="CK33" s="7">
         <v>3500</v>
       </c>
-      <c r="CL33" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="CM33" s="4" t="s">
-        <v>126</v>
-      </c>
     </row>
-    <row r="34" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1024</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I34" s="4" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="K34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M34" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L34" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N34" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="Q34" s="5">
         <v>65</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="U34" s="5">
         <v>2</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="W34" s="4" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="Y34" s="5">
         <v>0</v>
@@ -9531,46 +9286,46 @@
         <v>1</v>
       </c>
       <c r="AB34" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC34" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD34" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF34" s="4">
         <v>2002</v>
       </c>
       <c r="AG34" s="4" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="AH34" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AI34" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ34" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK34" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AK34" s="4" t="s">
+      <c r="AL34" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL34" s="4" t="s">
+      <c r="AM34" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM34" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN34" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO34" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP34" s="4">
         <v>4</v>
@@ -9585,22 +9340,22 @@
         <v>245</v>
       </c>
       <c r="AT34" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AU34" s="4">
         <v>0</v>
       </c>
       <c r="AV34" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW34" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX34" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY34" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ34" s="4">
         <v>6</v>
@@ -9675,19 +9430,19 @@
         <v>250</v>
       </c>
       <c r="BX34" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY34" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ34" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA34" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB34" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC34" s="4">
         <v>4</v>
@@ -9708,7 +9463,7 @@
         <v>87</v>
       </c>
       <c r="CI34" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ34" s="7">
         <v>2065</v>
@@ -9716,85 +9471,79 @@
       <c r="CK34" s="7">
         <v>3500</v>
       </c>
-      <c r="CL34" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="CM34" s="4" t="s">
-        <v>126</v>
-      </c>
     </row>
-    <row r="35" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1024</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="F35" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="Q35" s="5">
         <v>65</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="U35" s="5">
         <v>2</v>
       </c>
       <c r="V35" s="4" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="W35" s="4" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="X35" s="4" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="Y35" s="5">
         <v>0</v>
@@ -9806,46 +9555,46 @@
         <v>1</v>
       </c>
       <c r="AB35" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AC35" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD35" s="4" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE35" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF35" s="4">
         <v>2008</v>
       </c>
       <c r="AG35" s="4" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="AH35" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AI35" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ35" s="9">
         <v>38077</v>
       </c>
       <c r="AK35" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL35" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL35" s="4" t="s">
+      <c r="AM35" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM35" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN35" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO35" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP35" s="4">
         <v>4</v>
@@ -9860,22 +9609,22 @@
         <v>245</v>
       </c>
       <c r="AT35" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AU35" s="4">
         <v>0</v>
       </c>
       <c r="AV35" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW35" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX35" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY35" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ35" s="4">
         <v>6</v>
@@ -9950,19 +9699,19 @@
         <v>0</v>
       </c>
       <c r="BX35" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY35" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ35" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA35" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB35" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC35" s="4">
         <v>0</v>
@@ -9980,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="CH35" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CI35" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ35" s="7">
         <v>0</v>
@@ -9991,85 +9740,79 @@
       <c r="CK35" s="7">
         <v>0</v>
       </c>
-      <c r="CL35" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM35" s="4" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="36" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1024</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="J36" s="4" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="K36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M36" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L36" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N36" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="Q36" s="5">
         <v>65</v>
       </c>
       <c r="R36" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S36" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S36" s="6" t="s">
+      <c r="T36" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="T36" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="U36" s="5">
         <v>4</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="W36" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="X36" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Y36" s="5">
         <v>0</v>
@@ -10081,46 +9824,46 @@
         <v>0</v>
       </c>
       <c r="AB36" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC36" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD36" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE36" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF36" s="4">
         <v>2005</v>
       </c>
       <c r="AG36" s="4" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="AH36" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AI36" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ36" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK36" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AK36" s="4" t="s">
+      <c r="AL36" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL36" s="4" t="s">
+      <c r="AM36" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM36" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN36" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO36" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP36" s="4">
         <v>4</v>
@@ -10135,22 +9878,22 @@
         <v>245</v>
       </c>
       <c r="AT36" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AU36" s="4">
         <v>0</v>
       </c>
       <c r="AV36" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW36" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX36" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY36" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ36" s="4">
         <v>6</v>
@@ -10225,19 +9968,19 @@
         <v>0</v>
       </c>
       <c r="BX36" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY36" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ36" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA36" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB36" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC36" s="4">
         <v>20</v>
@@ -10255,10 +9998,10 @@
         <v>80</v>
       </c>
       <c r="CH36" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CI36" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ36" s="7">
         <v>0</v>
@@ -10266,85 +10009,79 @@
       <c r="CK36" s="7">
         <v>0</v>
       </c>
-      <c r="CL36" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="CM36" s="4" t="s">
-        <v>148</v>
-      </c>
     </row>
-    <row r="37" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1024</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I37" s="4" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="K37" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M37" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L37" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N37" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="Q37" s="5">
         <v>65</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="U37" s="5">
         <v>2</v>
       </c>
       <c r="V37" s="4" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="W37" s="4" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="X37" s="4" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="Y37" s="5">
         <v>0</v>
@@ -10356,46 +10093,46 @@
         <v>1</v>
       </c>
       <c r="AB37" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC37" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD37" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE37" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF37" s="4">
         <v>2006</v>
       </c>
       <c r="AG37" s="4" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="AH37" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AI37" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK37" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AK37" s="4" t="s">
+      <c r="AL37" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL37" s="4" t="s">
+      <c r="AM37" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM37" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN37" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO37" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP37" s="4">
         <v>4</v>
@@ -10410,22 +10147,22 @@
         <v>245</v>
       </c>
       <c r="AT37" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AU37" s="4">
         <v>0</v>
       </c>
       <c r="AV37" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW37" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX37" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY37" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ37" s="4">
         <v>6</v>
@@ -10500,19 +10237,19 @@
         <v>100</v>
       </c>
       <c r="BX37" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY37" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ37" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA37" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB37" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC37" s="4">
         <v>0</v>
@@ -10530,10 +10267,10 @@
         <v>0</v>
       </c>
       <c r="CH37" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CI37" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ37" s="7">
         <v>0</v>
@@ -10541,85 +10278,79 @@
       <c r="CK37" s="7">
         <v>0</v>
       </c>
-      <c r="CL37" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="CM37" s="4" t="s">
-        <v>148</v>
-      </c>
     </row>
-    <row r="38" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>1024</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I38" s="4" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="K38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M38" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L38" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N38" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="Q38" s="5">
         <v>65</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="U38" s="5">
         <v>2</v>
       </c>
       <c r="V38" s="4" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="W38" s="4" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="X38" s="4" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="Y38" s="5">
         <v>0</v>
@@ -10631,46 +10362,46 @@
         <v>1</v>
       </c>
       <c r="AB38" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC38" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD38" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE38" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF38" s="4">
         <v>2006</v>
       </c>
       <c r="AG38" s="4" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="AH38" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AI38" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ38" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK38" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AK38" s="4" t="s">
+      <c r="AL38" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL38" s="4" t="s">
+      <c r="AM38" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM38" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN38" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO38" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP38" s="4">
         <v>4</v>
@@ -10685,22 +10416,22 @@
         <v>245</v>
       </c>
       <c r="AT38" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AU38" s="4">
         <v>0</v>
       </c>
       <c r="AV38" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW38" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX38" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY38" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ38" s="4">
         <v>6</v>
@@ -10775,19 +10506,19 @@
         <v>100</v>
       </c>
       <c r="BX38" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY38" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ38" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA38" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB38" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC38" s="4">
         <v>0</v>
@@ -10805,10 +10536,10 @@
         <v>0</v>
       </c>
       <c r="CH38" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CI38" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ38" s="7">
         <v>2065</v>
@@ -10816,136 +10547,130 @@
       <c r="CK38" s="7">
         <v>3500</v>
       </c>
-      <c r="CL38" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM38" s="4" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="39" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>1024</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="J39" s="4" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="K39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M39" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L39" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N39" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="Q39" s="5">
         <v>65</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="U39" s="5">
         <v>1</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="Y39" s="5">
         <v>1</v>
       </c>
       <c r="Z39" s="5" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="AA39" s="5">
         <v>0</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF39" s="4">
         <v>2004</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ39" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK39" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AK39" s="4" t="s">
+      <c r="AL39" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL39" s="4" t="s">
+      <c r="AM39" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM39" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN39" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO39" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP39" s="4">
         <v>4</v>
@@ -10960,22 +10685,22 @@
         <v>245</v>
       </c>
       <c r="AT39" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AU39" s="4">
         <v>0</v>
       </c>
       <c r="AV39" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW39" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX39" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY39" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ39" s="4">
         <v>6</v>
@@ -11050,19 +10775,19 @@
         <v>100</v>
       </c>
       <c r="BX39" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY39" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ39" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA39" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB39" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC39" s="4">
         <v>15</v>
@@ -11080,10 +10805,10 @@
         <v>40</v>
       </c>
       <c r="CH39" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CI39" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ39" s="7">
         <v>2065</v>
@@ -11091,85 +10816,79 @@
       <c r="CK39" s="7">
         <v>3500</v>
       </c>
-      <c r="CL39" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="CM39" s="4" t="s">
-        <v>148</v>
-      </c>
     </row>
-    <row r="40" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>1024</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="H40" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I40" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="K40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M40" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L40" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N40" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="Q40" s="5">
         <v>65</v>
       </c>
       <c r="R40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S40" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="S40" s="6" t="s">
+      <c r="T40" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="T40" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="U40" s="5">
         <v>1</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="Y40" s="5">
         <v>0</v>
@@ -11181,46 +10900,46 @@
         <v>0</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF40" s="4">
         <v>2007</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ40" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK40" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AK40" s="4" t="s">
+      <c r="AL40" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL40" s="4" t="s">
+      <c r="AM40" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AM40" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="AN40" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO40" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP40" s="4">
         <v>4</v>
@@ -11235,22 +10954,22 @@
         <v>245</v>
       </c>
       <c r="AT40" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AU40" s="4">
         <v>0</v>
       </c>
       <c r="AV40" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW40" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX40" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY40" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ40" s="4">
         <v>6</v>
@@ -11325,19 +11044,19 @@
         <v>150</v>
       </c>
       <c r="BX40" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY40" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ40" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA40" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB40" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC40" s="4">
         <v>0</v>
@@ -11355,145 +11074,139 @@
         <v>0</v>
       </c>
       <c r="CH40" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CI40" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ40" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CK40" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="CL40" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM40" s="4" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>1024</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I41" s="4" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="K41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M41" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L41" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N41" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="Q41" s="5">
         <v>74</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="U41" s="5">
         <v>8</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="Y41" s="5">
         <v>1</v>
       </c>
       <c r="Z41" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="AA41" s="5">
         <v>0</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF41" s="4">
         <v>2008</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ41" s="4"/>
       <c r="AK41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL41" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL41" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="AM41" s="4" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="AN41" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO41" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP41" s="4">
         <v>2</v>
@@ -11508,22 +11221,22 @@
         <v>80</v>
       </c>
       <c r="AT41" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AU41" s="4">
         <v>5000</v>
       </c>
       <c r="AV41" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AW41" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX41" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY41" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ41" s="4">
         <v>0</v>
@@ -11598,19 +11311,19 @@
         <v>50</v>
       </c>
       <c r="BX41" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY41" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ41" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA41" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB41" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC41" s="4">
         <v>0</v>
@@ -11631,7 +11344,7 @@
         <v>0</v>
       </c>
       <c r="CI41" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ41" s="7">
         <v>0</v>
@@ -11639,85 +11352,79 @@
       <c r="CK41" s="7">
         <v>0</v>
       </c>
-      <c r="CL41" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM41" s="4" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="42" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>1024</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I42" s="4" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="K42" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M42" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L42" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N42" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="Q42" s="5">
         <v>74</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="S42" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="T42" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="T42" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="U42" s="5">
         <v>4</v>
       </c>
       <c r="V42" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="W42" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="X42" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Y42" s="5">
         <v>0</v>
@@ -11729,44 +11436,44 @@
         <v>0</v>
       </c>
       <c r="AB42" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC42" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD42" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE42" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF42" s="4">
         <v>2008</v>
       </c>
       <c r="AG42" s="4" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="AH42" s="4" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="AI42" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ42" s="4"/>
       <c r="AK42" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL42" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL42" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="AM42" s="4" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="AN42" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO42" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP42" s="4">
         <v>2</v>
@@ -11781,22 +11488,22 @@
         <v>85</v>
       </c>
       <c r="AT42" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AU42" s="4">
         <v>4500</v>
       </c>
       <c r="AV42" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AW42" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX42" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY42" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ42" s="4">
         <v>0</v>
@@ -11871,19 +11578,19 @@
         <v>50</v>
       </c>
       <c r="BX42" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY42" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ42" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA42" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB42" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC42" s="4">
         <v>0</v>
@@ -11904,7 +11611,7 @@
         <v>0</v>
       </c>
       <c r="CI42" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ42" s="7">
         <v>0</v>
@@ -11912,85 +11619,79 @@
       <c r="CK42" s="7">
         <v>0</v>
       </c>
-      <c r="CL42" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM42" s="4" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="43" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>1024</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I43" s="4" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="K43" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M43" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L43" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N43" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="Q43" s="5">
         <v>74</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="S43" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="U43" s="5">
         <v>4</v>
       </c>
       <c r="V43" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="W43" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="X43" s="4" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="Y43" s="5">
         <v>0</v>
@@ -12002,44 +11703,44 @@
         <v>1</v>
       </c>
       <c r="AB43" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC43" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD43" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE43" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF43" s="4">
         <v>2008</v>
       </c>
       <c r="AG43" s="4" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="AH43" s="4" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="AI43" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ43" s="4"/>
       <c r="AK43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL43" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL43" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="AM43" s="4" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="AN43" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO43" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP43" s="4">
         <v>2</v>
@@ -12054,22 +11755,22 @@
         <v>85</v>
       </c>
       <c r="AT43" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AU43" s="4">
         <v>0</v>
       </c>
       <c r="AV43" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AW43" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX43" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY43" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ43" s="4">
         <v>0</v>
@@ -12144,19 +11845,19 @@
         <v>80</v>
       </c>
       <c r="BX43" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY43" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ43" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA43" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB43" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC43" s="4">
         <v>0</v>
@@ -12177,7 +11878,7 @@
         <v>0</v>
       </c>
       <c r="CI43" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ43" s="7">
         <v>0</v>
@@ -12185,85 +11886,79 @@
       <c r="CK43" s="7">
         <v>0</v>
       </c>
-      <c r="CL43" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM43" s="4" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="44" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>1024</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="I44" s="4" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="K44" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M44" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="L44" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="N44" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="Q44" s="5">
         <v>79</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="U44" s="5">
         <v>6</v>
       </c>
       <c r="V44" s="4" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="W44" s="4" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="X44" s="4" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="Y44" s="5">
         <v>0</v>
@@ -12275,44 +11970,44 @@
         <v>1</v>
       </c>
       <c r="AB44" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC44" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD44" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AE44" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF44" s="4">
         <v>2008</v>
       </c>
       <c r="AG44" s="4" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="AH44" s="4" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="AI44" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ44" s="4"/>
       <c r="AK44" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL44" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AL44" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="AM44" s="4" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="AN44" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AO44" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AP44" s="4">
         <v>1</v>
@@ -12327,22 +12022,22 @@
         <v>25</v>
       </c>
       <c r="AT44" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AU44" s="4">
         <v>0</v>
       </c>
       <c r="AV44" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AW44" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX44" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AY44" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ44" s="4">
         <v>0</v>
@@ -12417,19 +12112,19 @@
         <v>0</v>
       </c>
       <c r="BX44" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BY44" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BZ44" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CA44" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CB44" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CC44" s="4">
         <v>0</v>
@@ -12450,19 +12145,13 @@
         <v>0</v>
       </c>
       <c r="CI44" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ44" s="7">
         <v>0</v>
       </c>
       <c r="CK44" s="7">
         <v>0</v>
-      </c>
-      <c r="CL44" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM44" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
